--- a/ドキュメント/質問事項.xlsx
+++ b/ドキュメント/質問事項.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="4">
@@ -72,6 +72,30 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他に追加するルールはあるか</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問者</t>
+    <rPh sb="0" eb="3">
+      <t>シツモンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難波颯哉</t>
+    <rPh sb="0" eb="4">
+      <t>ナンバソウヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,69 +448,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
